--- a/Spreadsheets/Transform_To_DSG.xlsx
+++ b/Spreadsheets/Transform_To_DSG.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougneedham\Documents\DMZ\code\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dneedham\Documents\DMZ\DMZ_2018\Gephi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719CA854-1DAE-474A-9274-A6A5125F2593}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{5FA7DC29-6260-40B9-82DD-D8D953F85329}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BusMatrix" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="106">
   <si>
     <t>Information Matrix</t>
   </si>
@@ -228,13 +227,130 @@
   </si>
   <si>
     <t>Consolidated Loans</t>
+  </si>
+  <si>
+    <t>FACT_Call</t>
+  </si>
+  <si>
+    <t>FACT_Telephone_Sales</t>
+  </si>
+  <si>
+    <t>FACT_Campaign_Promotions</t>
+  </si>
+  <si>
+    <t>FACT_Campaign_Record</t>
+  </si>
+  <si>
+    <t>FACT_Collections</t>
+  </si>
+  <si>
+    <t>FACT_Customer_Service</t>
+  </si>
+  <si>
+    <t>FACT_Publication</t>
+  </si>
+  <si>
+    <t>FACT_Campus</t>
+  </si>
+  <si>
+    <t>FACT_Web_Session</t>
+  </si>
+  <si>
+    <t>FACT_Prospect_Transaction</t>
+  </si>
+  <si>
+    <t>FACT_Servicing_Transaction</t>
+  </si>
+  <si>
+    <t>FACT_Work_Session</t>
+  </si>
+  <si>
+    <t>FACT_Prospect</t>
+  </si>
+  <si>
+    <t>FACT_Consolidated_Loans</t>
+  </si>
+  <si>
+    <t>FACT_School_Demographics</t>
+  </si>
+  <si>
+    <t>FACT_Student</t>
+  </si>
+  <si>
+    <t>FACT_Instructor</t>
+  </si>
+  <si>
+    <t>FACT_Interaction</t>
+  </si>
+  <si>
+    <t>DIM_Date</t>
+  </si>
+  <si>
+    <t>DIM_Time</t>
+  </si>
+  <si>
+    <t>DIM_Employee</t>
+  </si>
+  <si>
+    <t>DIM_School</t>
+  </si>
+  <si>
+    <t>DIM_Lender</t>
+  </si>
+  <si>
+    <t>DIM_Location</t>
+  </si>
+  <si>
+    <t>DIM_Institution</t>
+  </si>
+  <si>
+    <t>DIM_Source_of_Name</t>
+  </si>
+  <si>
+    <t>DIM_Customer</t>
+  </si>
+  <si>
+    <t>DIM_Student</t>
+  </si>
+  <si>
+    <t>DIM_Prospect</t>
+  </si>
+  <si>
+    <t>DIM_First_Call_Type</t>
+  </si>
+  <si>
+    <t>DIM_Product</t>
+  </si>
+  <si>
+    <t>DIM_Campaign</t>
+  </si>
+  <si>
+    <t>DIM_Creative</t>
+  </si>
+  <si>
+    <t>DIM_Phone_Source</t>
+  </si>
+  <si>
+    <t>DIM_Selection_Criteria</t>
+  </si>
+  <si>
+    <t>DIM_Application</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Edge_Label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +369,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -468,15 +589,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,27 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -540,6 +634,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,1277 +977,1252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986F226-D9D2-4973-9538-554C5DF7C3CD}">
-  <dimension ref="A1:AK28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:Y4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="10" width="3.28515625" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="25" width="3.28515625" customWidth="1"/>
-    <col min="234" max="234" width="20.5703125" customWidth="1"/>
-    <col min="235" max="238" width="0" hidden="1" customWidth="1"/>
-    <col min="239" max="243" width="3.28515625" customWidth="1"/>
-    <col min="244" max="244" width="4.28515625" customWidth="1"/>
-    <col min="245" max="281" width="3.28515625" customWidth="1"/>
-    <col min="490" max="490" width="20.5703125" customWidth="1"/>
-    <col min="491" max="494" width="0" hidden="1" customWidth="1"/>
-    <col min="495" max="499" width="3.28515625" customWidth="1"/>
-    <col min="500" max="500" width="4.28515625" customWidth="1"/>
-    <col min="501" max="537" width="3.28515625" customWidth="1"/>
-    <col min="746" max="746" width="20.5703125" customWidth="1"/>
-    <col min="747" max="750" width="0" hidden="1" customWidth="1"/>
-    <col min="751" max="755" width="3.28515625" customWidth="1"/>
-    <col min="756" max="756" width="4.28515625" customWidth="1"/>
-    <col min="757" max="793" width="3.28515625" customWidth="1"/>
-    <col min="1002" max="1002" width="20.5703125" customWidth="1"/>
-    <col min="1003" max="1006" width="0" hidden="1" customWidth="1"/>
-    <col min="1007" max="1011" width="3.28515625" customWidth="1"/>
-    <col min="1012" max="1012" width="4.28515625" customWidth="1"/>
-    <col min="1013" max="1049" width="3.28515625" customWidth="1"/>
-    <col min="1258" max="1258" width="20.5703125" customWidth="1"/>
-    <col min="1259" max="1262" width="0" hidden="1" customWidth="1"/>
-    <col min="1263" max="1267" width="3.28515625" customWidth="1"/>
-    <col min="1268" max="1268" width="4.28515625" customWidth="1"/>
-    <col min="1269" max="1305" width="3.28515625" customWidth="1"/>
-    <col min="1514" max="1514" width="20.5703125" customWidth="1"/>
-    <col min="1515" max="1518" width="0" hidden="1" customWidth="1"/>
-    <col min="1519" max="1523" width="3.28515625" customWidth="1"/>
-    <col min="1524" max="1524" width="4.28515625" customWidth="1"/>
-    <col min="1525" max="1561" width="3.28515625" customWidth="1"/>
-    <col min="1770" max="1770" width="20.5703125" customWidth="1"/>
-    <col min="1771" max="1774" width="0" hidden="1" customWidth="1"/>
-    <col min="1775" max="1779" width="3.28515625" customWidth="1"/>
-    <col min="1780" max="1780" width="4.28515625" customWidth="1"/>
-    <col min="1781" max="1817" width="3.28515625" customWidth="1"/>
-    <col min="2026" max="2026" width="20.5703125" customWidth="1"/>
-    <col min="2027" max="2030" width="0" hidden="1" customWidth="1"/>
-    <col min="2031" max="2035" width="3.28515625" customWidth="1"/>
-    <col min="2036" max="2036" width="4.28515625" customWidth="1"/>
-    <col min="2037" max="2073" width="3.28515625" customWidth="1"/>
-    <col min="2282" max="2282" width="20.5703125" customWidth="1"/>
-    <col min="2283" max="2286" width="0" hidden="1" customWidth="1"/>
-    <col min="2287" max="2291" width="3.28515625" customWidth="1"/>
-    <col min="2292" max="2292" width="4.28515625" customWidth="1"/>
-    <col min="2293" max="2329" width="3.28515625" customWidth="1"/>
-    <col min="2538" max="2538" width="20.5703125" customWidth="1"/>
-    <col min="2539" max="2542" width="0" hidden="1" customWidth="1"/>
-    <col min="2543" max="2547" width="3.28515625" customWidth="1"/>
-    <col min="2548" max="2548" width="4.28515625" customWidth="1"/>
-    <col min="2549" max="2585" width="3.28515625" customWidth="1"/>
-    <col min="2794" max="2794" width="20.5703125" customWidth="1"/>
-    <col min="2795" max="2798" width="0" hidden="1" customWidth="1"/>
-    <col min="2799" max="2803" width="3.28515625" customWidth="1"/>
-    <col min="2804" max="2804" width="4.28515625" customWidth="1"/>
-    <col min="2805" max="2841" width="3.28515625" customWidth="1"/>
-    <col min="3050" max="3050" width="20.5703125" customWidth="1"/>
-    <col min="3051" max="3054" width="0" hidden="1" customWidth="1"/>
-    <col min="3055" max="3059" width="3.28515625" customWidth="1"/>
-    <col min="3060" max="3060" width="4.28515625" customWidth="1"/>
-    <col min="3061" max="3097" width="3.28515625" customWidth="1"/>
-    <col min="3306" max="3306" width="20.5703125" customWidth="1"/>
-    <col min="3307" max="3310" width="0" hidden="1" customWidth="1"/>
-    <col min="3311" max="3315" width="3.28515625" customWidth="1"/>
-    <col min="3316" max="3316" width="4.28515625" customWidth="1"/>
-    <col min="3317" max="3353" width="3.28515625" customWidth="1"/>
-    <col min="3562" max="3562" width="20.5703125" customWidth="1"/>
-    <col min="3563" max="3566" width="0" hidden="1" customWidth="1"/>
-    <col min="3567" max="3571" width="3.28515625" customWidth="1"/>
-    <col min="3572" max="3572" width="4.28515625" customWidth="1"/>
-    <col min="3573" max="3609" width="3.28515625" customWidth="1"/>
-    <col min="3818" max="3818" width="20.5703125" customWidth="1"/>
-    <col min="3819" max="3822" width="0" hidden="1" customWidth="1"/>
-    <col min="3823" max="3827" width="3.28515625" customWidth="1"/>
-    <col min="3828" max="3828" width="4.28515625" customWidth="1"/>
-    <col min="3829" max="3865" width="3.28515625" customWidth="1"/>
-    <col min="4074" max="4074" width="20.5703125" customWidth="1"/>
-    <col min="4075" max="4078" width="0" hidden="1" customWidth="1"/>
-    <col min="4079" max="4083" width="3.28515625" customWidth="1"/>
-    <col min="4084" max="4084" width="4.28515625" customWidth="1"/>
-    <col min="4085" max="4121" width="3.28515625" customWidth="1"/>
-    <col min="4330" max="4330" width="20.5703125" customWidth="1"/>
-    <col min="4331" max="4334" width="0" hidden="1" customWidth="1"/>
-    <col min="4335" max="4339" width="3.28515625" customWidth="1"/>
-    <col min="4340" max="4340" width="4.28515625" customWidth="1"/>
-    <col min="4341" max="4377" width="3.28515625" customWidth="1"/>
-    <col min="4586" max="4586" width="20.5703125" customWidth="1"/>
-    <col min="4587" max="4590" width="0" hidden="1" customWidth="1"/>
-    <col min="4591" max="4595" width="3.28515625" customWidth="1"/>
-    <col min="4596" max="4596" width="4.28515625" customWidth="1"/>
-    <col min="4597" max="4633" width="3.28515625" customWidth="1"/>
-    <col min="4842" max="4842" width="20.5703125" customWidth="1"/>
-    <col min="4843" max="4846" width="0" hidden="1" customWidth="1"/>
-    <col min="4847" max="4851" width="3.28515625" customWidth="1"/>
-    <col min="4852" max="4852" width="4.28515625" customWidth="1"/>
-    <col min="4853" max="4889" width="3.28515625" customWidth="1"/>
-    <col min="5098" max="5098" width="20.5703125" customWidth="1"/>
-    <col min="5099" max="5102" width="0" hidden="1" customWidth="1"/>
-    <col min="5103" max="5107" width="3.28515625" customWidth="1"/>
-    <col min="5108" max="5108" width="4.28515625" customWidth="1"/>
-    <col min="5109" max="5145" width="3.28515625" customWidth="1"/>
-    <col min="5354" max="5354" width="20.5703125" customWidth="1"/>
-    <col min="5355" max="5358" width="0" hidden="1" customWidth="1"/>
-    <col min="5359" max="5363" width="3.28515625" customWidth="1"/>
-    <col min="5364" max="5364" width="4.28515625" customWidth="1"/>
-    <col min="5365" max="5401" width="3.28515625" customWidth="1"/>
-    <col min="5610" max="5610" width="20.5703125" customWidth="1"/>
-    <col min="5611" max="5614" width="0" hidden="1" customWidth="1"/>
-    <col min="5615" max="5619" width="3.28515625" customWidth="1"/>
-    <col min="5620" max="5620" width="4.28515625" customWidth="1"/>
-    <col min="5621" max="5657" width="3.28515625" customWidth="1"/>
-    <col min="5866" max="5866" width="20.5703125" customWidth="1"/>
-    <col min="5867" max="5870" width="0" hidden="1" customWidth="1"/>
-    <col min="5871" max="5875" width="3.28515625" customWidth="1"/>
-    <col min="5876" max="5876" width="4.28515625" customWidth="1"/>
-    <col min="5877" max="5913" width="3.28515625" customWidth="1"/>
-    <col min="6122" max="6122" width="20.5703125" customWidth="1"/>
-    <col min="6123" max="6126" width="0" hidden="1" customWidth="1"/>
-    <col min="6127" max="6131" width="3.28515625" customWidth="1"/>
-    <col min="6132" max="6132" width="4.28515625" customWidth="1"/>
-    <col min="6133" max="6169" width="3.28515625" customWidth="1"/>
-    <col min="6378" max="6378" width="20.5703125" customWidth="1"/>
-    <col min="6379" max="6382" width="0" hidden="1" customWidth="1"/>
-    <col min="6383" max="6387" width="3.28515625" customWidth="1"/>
-    <col min="6388" max="6388" width="4.28515625" customWidth="1"/>
-    <col min="6389" max="6425" width="3.28515625" customWidth="1"/>
-    <col min="6634" max="6634" width="20.5703125" customWidth="1"/>
-    <col min="6635" max="6638" width="0" hidden="1" customWidth="1"/>
-    <col min="6639" max="6643" width="3.28515625" customWidth="1"/>
-    <col min="6644" max="6644" width="4.28515625" customWidth="1"/>
-    <col min="6645" max="6681" width="3.28515625" customWidth="1"/>
-    <col min="6890" max="6890" width="20.5703125" customWidth="1"/>
-    <col min="6891" max="6894" width="0" hidden="1" customWidth="1"/>
-    <col min="6895" max="6899" width="3.28515625" customWidth="1"/>
-    <col min="6900" max="6900" width="4.28515625" customWidth="1"/>
-    <col min="6901" max="6937" width="3.28515625" customWidth="1"/>
-    <col min="7146" max="7146" width="20.5703125" customWidth="1"/>
-    <col min="7147" max="7150" width="0" hidden="1" customWidth="1"/>
-    <col min="7151" max="7155" width="3.28515625" customWidth="1"/>
-    <col min="7156" max="7156" width="4.28515625" customWidth="1"/>
-    <col min="7157" max="7193" width="3.28515625" customWidth="1"/>
-    <col min="7402" max="7402" width="20.5703125" customWidth="1"/>
-    <col min="7403" max="7406" width="0" hidden="1" customWidth="1"/>
-    <col min="7407" max="7411" width="3.28515625" customWidth="1"/>
-    <col min="7412" max="7412" width="4.28515625" customWidth="1"/>
-    <col min="7413" max="7449" width="3.28515625" customWidth="1"/>
-    <col min="7658" max="7658" width="20.5703125" customWidth="1"/>
-    <col min="7659" max="7662" width="0" hidden="1" customWidth="1"/>
-    <col min="7663" max="7667" width="3.28515625" customWidth="1"/>
-    <col min="7668" max="7668" width="4.28515625" customWidth="1"/>
-    <col min="7669" max="7705" width="3.28515625" customWidth="1"/>
-    <col min="7914" max="7914" width="20.5703125" customWidth="1"/>
-    <col min="7915" max="7918" width="0" hidden="1" customWidth="1"/>
-    <col min="7919" max="7923" width="3.28515625" customWidth="1"/>
-    <col min="7924" max="7924" width="4.28515625" customWidth="1"/>
-    <col min="7925" max="7961" width="3.28515625" customWidth="1"/>
-    <col min="8170" max="8170" width="20.5703125" customWidth="1"/>
-    <col min="8171" max="8174" width="0" hidden="1" customWidth="1"/>
-    <col min="8175" max="8179" width="3.28515625" customWidth="1"/>
-    <col min="8180" max="8180" width="4.28515625" customWidth="1"/>
-    <col min="8181" max="8217" width="3.28515625" customWidth="1"/>
-    <col min="8426" max="8426" width="20.5703125" customWidth="1"/>
-    <col min="8427" max="8430" width="0" hidden="1" customWidth="1"/>
-    <col min="8431" max="8435" width="3.28515625" customWidth="1"/>
-    <col min="8436" max="8436" width="4.28515625" customWidth="1"/>
-    <col min="8437" max="8473" width="3.28515625" customWidth="1"/>
-    <col min="8682" max="8682" width="20.5703125" customWidth="1"/>
-    <col min="8683" max="8686" width="0" hidden="1" customWidth="1"/>
-    <col min="8687" max="8691" width="3.28515625" customWidth="1"/>
-    <col min="8692" max="8692" width="4.28515625" customWidth="1"/>
-    <col min="8693" max="8729" width="3.28515625" customWidth="1"/>
-    <col min="8938" max="8938" width="20.5703125" customWidth="1"/>
-    <col min="8939" max="8942" width="0" hidden="1" customWidth="1"/>
-    <col min="8943" max="8947" width="3.28515625" customWidth="1"/>
-    <col min="8948" max="8948" width="4.28515625" customWidth="1"/>
-    <col min="8949" max="8985" width="3.28515625" customWidth="1"/>
-    <col min="9194" max="9194" width="20.5703125" customWidth="1"/>
-    <col min="9195" max="9198" width="0" hidden="1" customWidth="1"/>
-    <col min="9199" max="9203" width="3.28515625" customWidth="1"/>
-    <col min="9204" max="9204" width="4.28515625" customWidth="1"/>
-    <col min="9205" max="9241" width="3.28515625" customWidth="1"/>
-    <col min="9450" max="9450" width="20.5703125" customWidth="1"/>
-    <col min="9451" max="9454" width="0" hidden="1" customWidth="1"/>
-    <col min="9455" max="9459" width="3.28515625" customWidth="1"/>
-    <col min="9460" max="9460" width="4.28515625" customWidth="1"/>
-    <col min="9461" max="9497" width="3.28515625" customWidth="1"/>
-    <col min="9706" max="9706" width="20.5703125" customWidth="1"/>
-    <col min="9707" max="9710" width="0" hidden="1" customWidth="1"/>
-    <col min="9711" max="9715" width="3.28515625" customWidth="1"/>
-    <col min="9716" max="9716" width="4.28515625" customWidth="1"/>
-    <col min="9717" max="9753" width="3.28515625" customWidth="1"/>
-    <col min="9962" max="9962" width="20.5703125" customWidth="1"/>
-    <col min="9963" max="9966" width="0" hidden="1" customWidth="1"/>
-    <col min="9967" max="9971" width="3.28515625" customWidth="1"/>
-    <col min="9972" max="9972" width="4.28515625" customWidth="1"/>
-    <col min="9973" max="10009" width="3.28515625" customWidth="1"/>
-    <col min="10218" max="10218" width="20.5703125" customWidth="1"/>
-    <col min="10219" max="10222" width="0" hidden="1" customWidth="1"/>
-    <col min="10223" max="10227" width="3.28515625" customWidth="1"/>
-    <col min="10228" max="10228" width="4.28515625" customWidth="1"/>
-    <col min="10229" max="10265" width="3.28515625" customWidth="1"/>
-    <col min="10474" max="10474" width="20.5703125" customWidth="1"/>
-    <col min="10475" max="10478" width="0" hidden="1" customWidth="1"/>
-    <col min="10479" max="10483" width="3.28515625" customWidth="1"/>
-    <col min="10484" max="10484" width="4.28515625" customWidth="1"/>
-    <col min="10485" max="10521" width="3.28515625" customWidth="1"/>
-    <col min="10730" max="10730" width="20.5703125" customWidth="1"/>
-    <col min="10731" max="10734" width="0" hidden="1" customWidth="1"/>
-    <col min="10735" max="10739" width="3.28515625" customWidth="1"/>
-    <col min="10740" max="10740" width="4.28515625" customWidth="1"/>
-    <col min="10741" max="10777" width="3.28515625" customWidth="1"/>
-    <col min="10986" max="10986" width="20.5703125" customWidth="1"/>
-    <col min="10987" max="10990" width="0" hidden="1" customWidth="1"/>
-    <col min="10991" max="10995" width="3.28515625" customWidth="1"/>
-    <col min="10996" max="10996" width="4.28515625" customWidth="1"/>
-    <col min="10997" max="11033" width="3.28515625" customWidth="1"/>
-    <col min="11242" max="11242" width="20.5703125" customWidth="1"/>
-    <col min="11243" max="11246" width="0" hidden="1" customWidth="1"/>
-    <col min="11247" max="11251" width="3.28515625" customWidth="1"/>
-    <col min="11252" max="11252" width="4.28515625" customWidth="1"/>
-    <col min="11253" max="11289" width="3.28515625" customWidth="1"/>
-    <col min="11498" max="11498" width="20.5703125" customWidth="1"/>
-    <col min="11499" max="11502" width="0" hidden="1" customWidth="1"/>
-    <col min="11503" max="11507" width="3.28515625" customWidth="1"/>
-    <col min="11508" max="11508" width="4.28515625" customWidth="1"/>
-    <col min="11509" max="11545" width="3.28515625" customWidth="1"/>
-    <col min="11754" max="11754" width="20.5703125" customWidth="1"/>
-    <col min="11755" max="11758" width="0" hidden="1" customWidth="1"/>
-    <col min="11759" max="11763" width="3.28515625" customWidth="1"/>
-    <col min="11764" max="11764" width="4.28515625" customWidth="1"/>
-    <col min="11765" max="11801" width="3.28515625" customWidth="1"/>
-    <col min="12010" max="12010" width="20.5703125" customWidth="1"/>
-    <col min="12011" max="12014" width="0" hidden="1" customWidth="1"/>
-    <col min="12015" max="12019" width="3.28515625" customWidth="1"/>
-    <col min="12020" max="12020" width="4.28515625" customWidth="1"/>
-    <col min="12021" max="12057" width="3.28515625" customWidth="1"/>
-    <col min="12266" max="12266" width="20.5703125" customWidth="1"/>
-    <col min="12267" max="12270" width="0" hidden="1" customWidth="1"/>
-    <col min="12271" max="12275" width="3.28515625" customWidth="1"/>
-    <col min="12276" max="12276" width="4.28515625" customWidth="1"/>
-    <col min="12277" max="12313" width="3.28515625" customWidth="1"/>
-    <col min="12522" max="12522" width="20.5703125" customWidth="1"/>
-    <col min="12523" max="12526" width="0" hidden="1" customWidth="1"/>
-    <col min="12527" max="12531" width="3.28515625" customWidth="1"/>
-    <col min="12532" max="12532" width="4.28515625" customWidth="1"/>
-    <col min="12533" max="12569" width="3.28515625" customWidth="1"/>
-    <col min="12778" max="12778" width="20.5703125" customWidth="1"/>
-    <col min="12779" max="12782" width="0" hidden="1" customWidth="1"/>
-    <col min="12783" max="12787" width="3.28515625" customWidth="1"/>
-    <col min="12788" max="12788" width="4.28515625" customWidth="1"/>
-    <col min="12789" max="12825" width="3.28515625" customWidth="1"/>
-    <col min="13034" max="13034" width="20.5703125" customWidth="1"/>
-    <col min="13035" max="13038" width="0" hidden="1" customWidth="1"/>
-    <col min="13039" max="13043" width="3.28515625" customWidth="1"/>
-    <col min="13044" max="13044" width="4.28515625" customWidth="1"/>
-    <col min="13045" max="13081" width="3.28515625" customWidth="1"/>
-    <col min="13290" max="13290" width="20.5703125" customWidth="1"/>
-    <col min="13291" max="13294" width="0" hidden="1" customWidth="1"/>
-    <col min="13295" max="13299" width="3.28515625" customWidth="1"/>
-    <col min="13300" max="13300" width="4.28515625" customWidth="1"/>
-    <col min="13301" max="13337" width="3.28515625" customWidth="1"/>
-    <col min="13546" max="13546" width="20.5703125" customWidth="1"/>
-    <col min="13547" max="13550" width="0" hidden="1" customWidth="1"/>
-    <col min="13551" max="13555" width="3.28515625" customWidth="1"/>
-    <col min="13556" max="13556" width="4.28515625" customWidth="1"/>
-    <col min="13557" max="13593" width="3.28515625" customWidth="1"/>
-    <col min="13802" max="13802" width="20.5703125" customWidth="1"/>
-    <col min="13803" max="13806" width="0" hidden="1" customWidth="1"/>
-    <col min="13807" max="13811" width="3.28515625" customWidth="1"/>
-    <col min="13812" max="13812" width="4.28515625" customWidth="1"/>
-    <col min="13813" max="13849" width="3.28515625" customWidth="1"/>
-    <col min="14058" max="14058" width="20.5703125" customWidth="1"/>
-    <col min="14059" max="14062" width="0" hidden="1" customWidth="1"/>
-    <col min="14063" max="14067" width="3.28515625" customWidth="1"/>
-    <col min="14068" max="14068" width="4.28515625" customWidth="1"/>
-    <col min="14069" max="14105" width="3.28515625" customWidth="1"/>
-    <col min="14314" max="14314" width="20.5703125" customWidth="1"/>
-    <col min="14315" max="14318" width="0" hidden="1" customWidth="1"/>
-    <col min="14319" max="14323" width="3.28515625" customWidth="1"/>
-    <col min="14324" max="14324" width="4.28515625" customWidth="1"/>
-    <col min="14325" max="14361" width="3.28515625" customWidth="1"/>
-    <col min="14570" max="14570" width="20.5703125" customWidth="1"/>
-    <col min="14571" max="14574" width="0" hidden="1" customWidth="1"/>
-    <col min="14575" max="14579" width="3.28515625" customWidth="1"/>
-    <col min="14580" max="14580" width="4.28515625" customWidth="1"/>
-    <col min="14581" max="14617" width="3.28515625" customWidth="1"/>
-    <col min="14826" max="14826" width="20.5703125" customWidth="1"/>
-    <col min="14827" max="14830" width="0" hidden="1" customWidth="1"/>
-    <col min="14831" max="14835" width="3.28515625" customWidth="1"/>
-    <col min="14836" max="14836" width="4.28515625" customWidth="1"/>
-    <col min="14837" max="14873" width="3.28515625" customWidth="1"/>
-    <col min="15082" max="15082" width="20.5703125" customWidth="1"/>
-    <col min="15083" max="15086" width="0" hidden="1" customWidth="1"/>
-    <col min="15087" max="15091" width="3.28515625" customWidth="1"/>
-    <col min="15092" max="15092" width="4.28515625" customWidth="1"/>
-    <col min="15093" max="15129" width="3.28515625" customWidth="1"/>
-    <col min="15338" max="15338" width="20.5703125" customWidth="1"/>
-    <col min="15339" max="15342" width="0" hidden="1" customWidth="1"/>
-    <col min="15343" max="15347" width="3.28515625" customWidth="1"/>
-    <col min="15348" max="15348" width="4.28515625" customWidth="1"/>
-    <col min="15349" max="15385" width="3.28515625" customWidth="1"/>
-    <col min="15594" max="15594" width="20.5703125" customWidth="1"/>
-    <col min="15595" max="15598" width="0" hidden="1" customWidth="1"/>
-    <col min="15599" max="15603" width="3.28515625" customWidth="1"/>
-    <col min="15604" max="15604" width="4.28515625" customWidth="1"/>
-    <col min="15605" max="15641" width="3.28515625" customWidth="1"/>
-    <col min="15850" max="15850" width="20.5703125" customWidth="1"/>
-    <col min="15851" max="15854" width="0" hidden="1" customWidth="1"/>
-    <col min="15855" max="15859" width="3.28515625" customWidth="1"/>
-    <col min="15860" max="15860" width="4.28515625" customWidth="1"/>
-    <col min="15861" max="15897" width="3.28515625" customWidth="1"/>
-    <col min="16106" max="16106" width="20.5703125" customWidth="1"/>
-    <col min="16107" max="16110" width="0" hidden="1" customWidth="1"/>
-    <col min="16111" max="16115" width="3.28515625" customWidth="1"/>
-    <col min="16116" max="16116" width="4.28515625" customWidth="1"/>
-    <col min="16117" max="16153" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="24" width="3.33203125" customWidth="1"/>
+    <col min="233" max="233" width="20.5546875" customWidth="1"/>
+    <col min="234" max="237" width="0" hidden="1" customWidth="1"/>
+    <col min="238" max="242" width="3.33203125" customWidth="1"/>
+    <col min="243" max="243" width="4.33203125" customWidth="1"/>
+    <col min="244" max="280" width="3.33203125" customWidth="1"/>
+    <col min="489" max="489" width="20.5546875" customWidth="1"/>
+    <col min="490" max="493" width="0" hidden="1" customWidth="1"/>
+    <col min="494" max="498" width="3.33203125" customWidth="1"/>
+    <col min="499" max="499" width="4.33203125" customWidth="1"/>
+    <col min="500" max="536" width="3.33203125" customWidth="1"/>
+    <col min="745" max="745" width="20.5546875" customWidth="1"/>
+    <col min="746" max="749" width="0" hidden="1" customWidth="1"/>
+    <col min="750" max="754" width="3.33203125" customWidth="1"/>
+    <col min="755" max="755" width="4.33203125" customWidth="1"/>
+    <col min="756" max="792" width="3.33203125" customWidth="1"/>
+    <col min="1001" max="1001" width="20.5546875" customWidth="1"/>
+    <col min="1002" max="1005" width="0" hidden="1" customWidth="1"/>
+    <col min="1006" max="1010" width="3.33203125" customWidth="1"/>
+    <col min="1011" max="1011" width="4.33203125" customWidth="1"/>
+    <col min="1012" max="1048" width="3.33203125" customWidth="1"/>
+    <col min="1257" max="1257" width="20.5546875" customWidth="1"/>
+    <col min="1258" max="1261" width="0" hidden="1" customWidth="1"/>
+    <col min="1262" max="1266" width="3.33203125" customWidth="1"/>
+    <col min="1267" max="1267" width="4.33203125" customWidth="1"/>
+    <col min="1268" max="1304" width="3.33203125" customWidth="1"/>
+    <col min="1513" max="1513" width="20.5546875" customWidth="1"/>
+    <col min="1514" max="1517" width="0" hidden="1" customWidth="1"/>
+    <col min="1518" max="1522" width="3.33203125" customWidth="1"/>
+    <col min="1523" max="1523" width="4.33203125" customWidth="1"/>
+    <col min="1524" max="1560" width="3.33203125" customWidth="1"/>
+    <col min="1769" max="1769" width="20.5546875" customWidth="1"/>
+    <col min="1770" max="1773" width="0" hidden="1" customWidth="1"/>
+    <col min="1774" max="1778" width="3.33203125" customWidth="1"/>
+    <col min="1779" max="1779" width="4.33203125" customWidth="1"/>
+    <col min="1780" max="1816" width="3.33203125" customWidth="1"/>
+    <col min="2025" max="2025" width="20.5546875" customWidth="1"/>
+    <col min="2026" max="2029" width="0" hidden="1" customWidth="1"/>
+    <col min="2030" max="2034" width="3.33203125" customWidth="1"/>
+    <col min="2035" max="2035" width="4.33203125" customWidth="1"/>
+    <col min="2036" max="2072" width="3.33203125" customWidth="1"/>
+    <col min="2281" max="2281" width="20.5546875" customWidth="1"/>
+    <col min="2282" max="2285" width="0" hidden="1" customWidth="1"/>
+    <col min="2286" max="2290" width="3.33203125" customWidth="1"/>
+    <col min="2291" max="2291" width="4.33203125" customWidth="1"/>
+    <col min="2292" max="2328" width="3.33203125" customWidth="1"/>
+    <col min="2537" max="2537" width="20.5546875" customWidth="1"/>
+    <col min="2538" max="2541" width="0" hidden="1" customWidth="1"/>
+    <col min="2542" max="2546" width="3.33203125" customWidth="1"/>
+    <col min="2547" max="2547" width="4.33203125" customWidth="1"/>
+    <col min="2548" max="2584" width="3.33203125" customWidth="1"/>
+    <col min="2793" max="2793" width="20.5546875" customWidth="1"/>
+    <col min="2794" max="2797" width="0" hidden="1" customWidth="1"/>
+    <col min="2798" max="2802" width="3.33203125" customWidth="1"/>
+    <col min="2803" max="2803" width="4.33203125" customWidth="1"/>
+    <col min="2804" max="2840" width="3.33203125" customWidth="1"/>
+    <col min="3049" max="3049" width="20.5546875" customWidth="1"/>
+    <col min="3050" max="3053" width="0" hidden="1" customWidth="1"/>
+    <col min="3054" max="3058" width="3.33203125" customWidth="1"/>
+    <col min="3059" max="3059" width="4.33203125" customWidth="1"/>
+    <col min="3060" max="3096" width="3.33203125" customWidth="1"/>
+    <col min="3305" max="3305" width="20.5546875" customWidth="1"/>
+    <col min="3306" max="3309" width="0" hidden="1" customWidth="1"/>
+    <col min="3310" max="3314" width="3.33203125" customWidth="1"/>
+    <col min="3315" max="3315" width="4.33203125" customWidth="1"/>
+    <col min="3316" max="3352" width="3.33203125" customWidth="1"/>
+    <col min="3561" max="3561" width="20.5546875" customWidth="1"/>
+    <col min="3562" max="3565" width="0" hidden="1" customWidth="1"/>
+    <col min="3566" max="3570" width="3.33203125" customWidth="1"/>
+    <col min="3571" max="3571" width="4.33203125" customWidth="1"/>
+    <col min="3572" max="3608" width="3.33203125" customWidth="1"/>
+    <col min="3817" max="3817" width="20.5546875" customWidth="1"/>
+    <col min="3818" max="3821" width="0" hidden="1" customWidth="1"/>
+    <col min="3822" max="3826" width="3.33203125" customWidth="1"/>
+    <col min="3827" max="3827" width="4.33203125" customWidth="1"/>
+    <col min="3828" max="3864" width="3.33203125" customWidth="1"/>
+    <col min="4073" max="4073" width="20.5546875" customWidth="1"/>
+    <col min="4074" max="4077" width="0" hidden="1" customWidth="1"/>
+    <col min="4078" max="4082" width="3.33203125" customWidth="1"/>
+    <col min="4083" max="4083" width="4.33203125" customWidth="1"/>
+    <col min="4084" max="4120" width="3.33203125" customWidth="1"/>
+    <col min="4329" max="4329" width="20.5546875" customWidth="1"/>
+    <col min="4330" max="4333" width="0" hidden="1" customWidth="1"/>
+    <col min="4334" max="4338" width="3.33203125" customWidth="1"/>
+    <col min="4339" max="4339" width="4.33203125" customWidth="1"/>
+    <col min="4340" max="4376" width="3.33203125" customWidth="1"/>
+    <col min="4585" max="4585" width="20.5546875" customWidth="1"/>
+    <col min="4586" max="4589" width="0" hidden="1" customWidth="1"/>
+    <col min="4590" max="4594" width="3.33203125" customWidth="1"/>
+    <col min="4595" max="4595" width="4.33203125" customWidth="1"/>
+    <col min="4596" max="4632" width="3.33203125" customWidth="1"/>
+    <col min="4841" max="4841" width="20.5546875" customWidth="1"/>
+    <col min="4842" max="4845" width="0" hidden="1" customWidth="1"/>
+    <col min="4846" max="4850" width="3.33203125" customWidth="1"/>
+    <col min="4851" max="4851" width="4.33203125" customWidth="1"/>
+    <col min="4852" max="4888" width="3.33203125" customWidth="1"/>
+    <col min="5097" max="5097" width="20.5546875" customWidth="1"/>
+    <col min="5098" max="5101" width="0" hidden="1" customWidth="1"/>
+    <col min="5102" max="5106" width="3.33203125" customWidth="1"/>
+    <col min="5107" max="5107" width="4.33203125" customWidth="1"/>
+    <col min="5108" max="5144" width="3.33203125" customWidth="1"/>
+    <col min="5353" max="5353" width="20.5546875" customWidth="1"/>
+    <col min="5354" max="5357" width="0" hidden="1" customWidth="1"/>
+    <col min="5358" max="5362" width="3.33203125" customWidth="1"/>
+    <col min="5363" max="5363" width="4.33203125" customWidth="1"/>
+    <col min="5364" max="5400" width="3.33203125" customWidth="1"/>
+    <col min="5609" max="5609" width="20.5546875" customWidth="1"/>
+    <col min="5610" max="5613" width="0" hidden="1" customWidth="1"/>
+    <col min="5614" max="5618" width="3.33203125" customWidth="1"/>
+    <col min="5619" max="5619" width="4.33203125" customWidth="1"/>
+    <col min="5620" max="5656" width="3.33203125" customWidth="1"/>
+    <col min="5865" max="5865" width="20.5546875" customWidth="1"/>
+    <col min="5866" max="5869" width="0" hidden="1" customWidth="1"/>
+    <col min="5870" max="5874" width="3.33203125" customWidth="1"/>
+    <col min="5875" max="5875" width="4.33203125" customWidth="1"/>
+    <col min="5876" max="5912" width="3.33203125" customWidth="1"/>
+    <col min="6121" max="6121" width="20.5546875" customWidth="1"/>
+    <col min="6122" max="6125" width="0" hidden="1" customWidth="1"/>
+    <col min="6126" max="6130" width="3.33203125" customWidth="1"/>
+    <col min="6131" max="6131" width="4.33203125" customWidth="1"/>
+    <col min="6132" max="6168" width="3.33203125" customWidth="1"/>
+    <col min="6377" max="6377" width="20.5546875" customWidth="1"/>
+    <col min="6378" max="6381" width="0" hidden="1" customWidth="1"/>
+    <col min="6382" max="6386" width="3.33203125" customWidth="1"/>
+    <col min="6387" max="6387" width="4.33203125" customWidth="1"/>
+    <col min="6388" max="6424" width="3.33203125" customWidth="1"/>
+    <col min="6633" max="6633" width="20.5546875" customWidth="1"/>
+    <col min="6634" max="6637" width="0" hidden="1" customWidth="1"/>
+    <col min="6638" max="6642" width="3.33203125" customWidth="1"/>
+    <col min="6643" max="6643" width="4.33203125" customWidth="1"/>
+    <col min="6644" max="6680" width="3.33203125" customWidth="1"/>
+    <col min="6889" max="6889" width="20.5546875" customWidth="1"/>
+    <col min="6890" max="6893" width="0" hidden="1" customWidth="1"/>
+    <col min="6894" max="6898" width="3.33203125" customWidth="1"/>
+    <col min="6899" max="6899" width="4.33203125" customWidth="1"/>
+    <col min="6900" max="6936" width="3.33203125" customWidth="1"/>
+    <col min="7145" max="7145" width="20.5546875" customWidth="1"/>
+    <col min="7146" max="7149" width="0" hidden="1" customWidth="1"/>
+    <col min="7150" max="7154" width="3.33203125" customWidth="1"/>
+    <col min="7155" max="7155" width="4.33203125" customWidth="1"/>
+    <col min="7156" max="7192" width="3.33203125" customWidth="1"/>
+    <col min="7401" max="7401" width="20.5546875" customWidth="1"/>
+    <col min="7402" max="7405" width="0" hidden="1" customWidth="1"/>
+    <col min="7406" max="7410" width="3.33203125" customWidth="1"/>
+    <col min="7411" max="7411" width="4.33203125" customWidth="1"/>
+    <col min="7412" max="7448" width="3.33203125" customWidth="1"/>
+    <col min="7657" max="7657" width="20.5546875" customWidth="1"/>
+    <col min="7658" max="7661" width="0" hidden="1" customWidth="1"/>
+    <col min="7662" max="7666" width="3.33203125" customWidth="1"/>
+    <col min="7667" max="7667" width="4.33203125" customWidth="1"/>
+    <col min="7668" max="7704" width="3.33203125" customWidth="1"/>
+    <col min="7913" max="7913" width="20.5546875" customWidth="1"/>
+    <col min="7914" max="7917" width="0" hidden="1" customWidth="1"/>
+    <col min="7918" max="7922" width="3.33203125" customWidth="1"/>
+    <col min="7923" max="7923" width="4.33203125" customWidth="1"/>
+    <col min="7924" max="7960" width="3.33203125" customWidth="1"/>
+    <col min="8169" max="8169" width="20.5546875" customWidth="1"/>
+    <col min="8170" max="8173" width="0" hidden="1" customWidth="1"/>
+    <col min="8174" max="8178" width="3.33203125" customWidth="1"/>
+    <col min="8179" max="8179" width="4.33203125" customWidth="1"/>
+    <col min="8180" max="8216" width="3.33203125" customWidth="1"/>
+    <col min="8425" max="8425" width="20.5546875" customWidth="1"/>
+    <col min="8426" max="8429" width="0" hidden="1" customWidth="1"/>
+    <col min="8430" max="8434" width="3.33203125" customWidth="1"/>
+    <col min="8435" max="8435" width="4.33203125" customWidth="1"/>
+    <col min="8436" max="8472" width="3.33203125" customWidth="1"/>
+    <col min="8681" max="8681" width="20.5546875" customWidth="1"/>
+    <col min="8682" max="8685" width="0" hidden="1" customWidth="1"/>
+    <col min="8686" max="8690" width="3.33203125" customWidth="1"/>
+    <col min="8691" max="8691" width="4.33203125" customWidth="1"/>
+    <col min="8692" max="8728" width="3.33203125" customWidth="1"/>
+    <col min="8937" max="8937" width="20.5546875" customWidth="1"/>
+    <col min="8938" max="8941" width="0" hidden="1" customWidth="1"/>
+    <col min="8942" max="8946" width="3.33203125" customWidth="1"/>
+    <col min="8947" max="8947" width="4.33203125" customWidth="1"/>
+    <col min="8948" max="8984" width="3.33203125" customWidth="1"/>
+    <col min="9193" max="9193" width="20.5546875" customWidth="1"/>
+    <col min="9194" max="9197" width="0" hidden="1" customWidth="1"/>
+    <col min="9198" max="9202" width="3.33203125" customWidth="1"/>
+    <col min="9203" max="9203" width="4.33203125" customWidth="1"/>
+    <col min="9204" max="9240" width="3.33203125" customWidth="1"/>
+    <col min="9449" max="9449" width="20.5546875" customWidth="1"/>
+    <col min="9450" max="9453" width="0" hidden="1" customWidth="1"/>
+    <col min="9454" max="9458" width="3.33203125" customWidth="1"/>
+    <col min="9459" max="9459" width="4.33203125" customWidth="1"/>
+    <col min="9460" max="9496" width="3.33203125" customWidth="1"/>
+    <col min="9705" max="9705" width="20.5546875" customWidth="1"/>
+    <col min="9706" max="9709" width="0" hidden="1" customWidth="1"/>
+    <col min="9710" max="9714" width="3.33203125" customWidth="1"/>
+    <col min="9715" max="9715" width="4.33203125" customWidth="1"/>
+    <col min="9716" max="9752" width="3.33203125" customWidth="1"/>
+    <col min="9961" max="9961" width="20.5546875" customWidth="1"/>
+    <col min="9962" max="9965" width="0" hidden="1" customWidth="1"/>
+    <col min="9966" max="9970" width="3.33203125" customWidth="1"/>
+    <col min="9971" max="9971" width="4.33203125" customWidth="1"/>
+    <col min="9972" max="10008" width="3.33203125" customWidth="1"/>
+    <col min="10217" max="10217" width="20.5546875" customWidth="1"/>
+    <col min="10218" max="10221" width="0" hidden="1" customWidth="1"/>
+    <col min="10222" max="10226" width="3.33203125" customWidth="1"/>
+    <col min="10227" max="10227" width="4.33203125" customWidth="1"/>
+    <col min="10228" max="10264" width="3.33203125" customWidth="1"/>
+    <col min="10473" max="10473" width="20.5546875" customWidth="1"/>
+    <col min="10474" max="10477" width="0" hidden="1" customWidth="1"/>
+    <col min="10478" max="10482" width="3.33203125" customWidth="1"/>
+    <col min="10483" max="10483" width="4.33203125" customWidth="1"/>
+    <col min="10484" max="10520" width="3.33203125" customWidth="1"/>
+    <col min="10729" max="10729" width="20.5546875" customWidth="1"/>
+    <col min="10730" max="10733" width="0" hidden="1" customWidth="1"/>
+    <col min="10734" max="10738" width="3.33203125" customWidth="1"/>
+    <col min="10739" max="10739" width="4.33203125" customWidth="1"/>
+    <col min="10740" max="10776" width="3.33203125" customWidth="1"/>
+    <col min="10985" max="10985" width="20.5546875" customWidth="1"/>
+    <col min="10986" max="10989" width="0" hidden="1" customWidth="1"/>
+    <col min="10990" max="10994" width="3.33203125" customWidth="1"/>
+    <col min="10995" max="10995" width="4.33203125" customWidth="1"/>
+    <col min="10996" max="11032" width="3.33203125" customWidth="1"/>
+    <col min="11241" max="11241" width="20.5546875" customWidth="1"/>
+    <col min="11242" max="11245" width="0" hidden="1" customWidth="1"/>
+    <col min="11246" max="11250" width="3.33203125" customWidth="1"/>
+    <col min="11251" max="11251" width="4.33203125" customWidth="1"/>
+    <col min="11252" max="11288" width="3.33203125" customWidth="1"/>
+    <col min="11497" max="11497" width="20.5546875" customWidth="1"/>
+    <col min="11498" max="11501" width="0" hidden="1" customWidth="1"/>
+    <col min="11502" max="11506" width="3.33203125" customWidth="1"/>
+    <col min="11507" max="11507" width="4.33203125" customWidth="1"/>
+    <col min="11508" max="11544" width="3.33203125" customWidth="1"/>
+    <col min="11753" max="11753" width="20.5546875" customWidth="1"/>
+    <col min="11754" max="11757" width="0" hidden="1" customWidth="1"/>
+    <col min="11758" max="11762" width="3.33203125" customWidth="1"/>
+    <col min="11763" max="11763" width="4.33203125" customWidth="1"/>
+    <col min="11764" max="11800" width="3.33203125" customWidth="1"/>
+    <col min="12009" max="12009" width="20.5546875" customWidth="1"/>
+    <col min="12010" max="12013" width="0" hidden="1" customWidth="1"/>
+    <col min="12014" max="12018" width="3.33203125" customWidth="1"/>
+    <col min="12019" max="12019" width="4.33203125" customWidth="1"/>
+    <col min="12020" max="12056" width="3.33203125" customWidth="1"/>
+    <col min="12265" max="12265" width="20.5546875" customWidth="1"/>
+    <col min="12266" max="12269" width="0" hidden="1" customWidth="1"/>
+    <col min="12270" max="12274" width="3.33203125" customWidth="1"/>
+    <col min="12275" max="12275" width="4.33203125" customWidth="1"/>
+    <col min="12276" max="12312" width="3.33203125" customWidth="1"/>
+    <col min="12521" max="12521" width="20.5546875" customWidth="1"/>
+    <col min="12522" max="12525" width="0" hidden="1" customWidth="1"/>
+    <col min="12526" max="12530" width="3.33203125" customWidth="1"/>
+    <col min="12531" max="12531" width="4.33203125" customWidth="1"/>
+    <col min="12532" max="12568" width="3.33203125" customWidth="1"/>
+    <col min="12777" max="12777" width="20.5546875" customWidth="1"/>
+    <col min="12778" max="12781" width="0" hidden="1" customWidth="1"/>
+    <col min="12782" max="12786" width="3.33203125" customWidth="1"/>
+    <col min="12787" max="12787" width="4.33203125" customWidth="1"/>
+    <col min="12788" max="12824" width="3.33203125" customWidth="1"/>
+    <col min="13033" max="13033" width="20.5546875" customWidth="1"/>
+    <col min="13034" max="13037" width="0" hidden="1" customWidth="1"/>
+    <col min="13038" max="13042" width="3.33203125" customWidth="1"/>
+    <col min="13043" max="13043" width="4.33203125" customWidth="1"/>
+    <col min="13044" max="13080" width="3.33203125" customWidth="1"/>
+    <col min="13289" max="13289" width="20.5546875" customWidth="1"/>
+    <col min="13290" max="13293" width="0" hidden="1" customWidth="1"/>
+    <col min="13294" max="13298" width="3.33203125" customWidth="1"/>
+    <col min="13299" max="13299" width="4.33203125" customWidth="1"/>
+    <col min="13300" max="13336" width="3.33203125" customWidth="1"/>
+    <col min="13545" max="13545" width="20.5546875" customWidth="1"/>
+    <col min="13546" max="13549" width="0" hidden="1" customWidth="1"/>
+    <col min="13550" max="13554" width="3.33203125" customWidth="1"/>
+    <col min="13555" max="13555" width="4.33203125" customWidth="1"/>
+    <col min="13556" max="13592" width="3.33203125" customWidth="1"/>
+    <col min="13801" max="13801" width="20.5546875" customWidth="1"/>
+    <col min="13802" max="13805" width="0" hidden="1" customWidth="1"/>
+    <col min="13806" max="13810" width="3.33203125" customWidth="1"/>
+    <col min="13811" max="13811" width="4.33203125" customWidth="1"/>
+    <col min="13812" max="13848" width="3.33203125" customWidth="1"/>
+    <col min="14057" max="14057" width="20.5546875" customWidth="1"/>
+    <col min="14058" max="14061" width="0" hidden="1" customWidth="1"/>
+    <col min="14062" max="14066" width="3.33203125" customWidth="1"/>
+    <col min="14067" max="14067" width="4.33203125" customWidth="1"/>
+    <col min="14068" max="14104" width="3.33203125" customWidth="1"/>
+    <col min="14313" max="14313" width="20.5546875" customWidth="1"/>
+    <col min="14314" max="14317" width="0" hidden="1" customWidth="1"/>
+    <col min="14318" max="14322" width="3.33203125" customWidth="1"/>
+    <col min="14323" max="14323" width="4.33203125" customWidth="1"/>
+    <col min="14324" max="14360" width="3.33203125" customWidth="1"/>
+    <col min="14569" max="14569" width="20.5546875" customWidth="1"/>
+    <col min="14570" max="14573" width="0" hidden="1" customWidth="1"/>
+    <col min="14574" max="14578" width="3.33203125" customWidth="1"/>
+    <col min="14579" max="14579" width="4.33203125" customWidth="1"/>
+    <col min="14580" max="14616" width="3.33203125" customWidth="1"/>
+    <col min="14825" max="14825" width="20.5546875" customWidth="1"/>
+    <col min="14826" max="14829" width="0" hidden="1" customWidth="1"/>
+    <col min="14830" max="14834" width="3.33203125" customWidth="1"/>
+    <col min="14835" max="14835" width="4.33203125" customWidth="1"/>
+    <col min="14836" max="14872" width="3.33203125" customWidth="1"/>
+    <col min="15081" max="15081" width="20.5546875" customWidth="1"/>
+    <col min="15082" max="15085" width="0" hidden="1" customWidth="1"/>
+    <col min="15086" max="15090" width="3.33203125" customWidth="1"/>
+    <col min="15091" max="15091" width="4.33203125" customWidth="1"/>
+    <col min="15092" max="15128" width="3.33203125" customWidth="1"/>
+    <col min="15337" max="15337" width="20.5546875" customWidth="1"/>
+    <col min="15338" max="15341" width="0" hidden="1" customWidth="1"/>
+    <col min="15342" max="15346" width="3.33203125" customWidth="1"/>
+    <col min="15347" max="15347" width="4.33203125" customWidth="1"/>
+    <col min="15348" max="15384" width="3.33203125" customWidth="1"/>
+    <col min="15593" max="15593" width="20.5546875" customWidth="1"/>
+    <col min="15594" max="15597" width="0" hidden="1" customWidth="1"/>
+    <col min="15598" max="15602" width="3.33203125" customWidth="1"/>
+    <col min="15603" max="15603" width="4.33203125" customWidth="1"/>
+    <col min="15604" max="15640" width="3.33203125" customWidth="1"/>
+    <col min="15849" max="15849" width="20.5546875" customWidth="1"/>
+    <col min="15850" max="15853" width="0" hidden="1" customWidth="1"/>
+    <col min="15854" max="15858" width="3.33203125" customWidth="1"/>
+    <col min="15859" max="15859" width="4.33203125" customWidth="1"/>
+    <col min="15860" max="15896" width="3.33203125" customWidth="1"/>
+    <col min="16105" max="16105" width="20.5546875" customWidth="1"/>
+    <col min="16106" max="16109" width="0" hidden="1" customWidth="1"/>
+    <col min="16110" max="16114" width="3.33203125" customWidth="1"/>
+    <col min="16115" max="16115" width="4.33203125" customWidth="1"/>
+    <col min="16116" max="16152" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="23.4" thickBot="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" ht="58.2" thickBot="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="H2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="10"/>
-    </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="H3" s="12" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="H3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4" spans="1:26" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:25" ht="80.400000000000006" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="21" t="s">
+      <c r="Q4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="S4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="U4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="V4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="W4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="X4" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:25">
+      <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="25"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="F5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="F6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="F7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-    </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="F8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+    </row>
+    <row r="9" spans="1:25" hidden="1">
+      <c r="A9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-    </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="F9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" hidden="1">
+      <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="25"/>
-    </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="F10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="16"/>
+    </row>
+    <row r="11" spans="1:25" hidden="1">
+      <c r="A11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="F11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="F12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="F13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-    </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="F14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" hidden="1">
+      <c r="A15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="F15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="F16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="25"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="F17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="F18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="F19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="16"/>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="X20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y20" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="F20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" hidden="1">
+      <c r="A21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="A22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="AK22" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="F22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="AJ22" s="16"/>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="F23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="17"/>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="17"/>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="17"/>
+    </row>
+    <row r="28" spans="1:36">
+      <c r="A28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H2:Z2"/>
+    <mergeCell ref="H2:Y2"/>
     <mergeCell ref="H3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2133,22 +2230,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65738CFE-501D-41C5-A367-733D105A050C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2164,7 +2261,7 @@
         <v>FACT_Call</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2180,7 +2277,7 @@
         <v>FACT_Telephone_Sales</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2196,7 +2293,7 @@
         <v>FACT_Campaign_Promotions</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2212,7 +2309,7 @@
         <v>FACT_Campaign_Record</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2228,7 +2325,7 @@
         <v>FACT_Collections</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2244,7 +2341,7 @@
         <v>FACT_Customer_Service</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2260,7 +2357,7 @@
         <v>FACT_Publication</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2276,7 +2373,7 @@
         <v>FACT_Campus</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2292,7 +2389,7 @@
         <v>FACT_Web_Session</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -2308,7 +2405,7 @@
         <v>FACT_Prospect_Transaction</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -2324,7 +2421,7 @@
         <v>FACT_Servicing_Transaction</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2340,7 +2437,7 @@
         <v>FACT_Work_Session</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2356,7 +2453,7 @@
         <v>FACT_Prospect</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2372,7 +2469,7 @@
         <v>FACT_Consolidated_Loans</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2388,7 +2485,7 @@
         <v>FACT_School_Demographics</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2404,7 +2501,7 @@
         <v>FACT_Student</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2420,7 +2517,7 @@
         <v>FACT_Telephone_Sales</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -2436,7 +2533,7 @@
         <v>FACT_Instructor</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2452,7 +2549,7 @@
         <v>FACT_Interaction</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2468,7 +2565,7 @@
         <v>DIM_Date</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2484,7 +2581,7 @@
         <v>DIM_Time</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2500,7 +2597,7 @@
         <v>DIM_Employee</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2516,7 +2613,7 @@
         <v>DIM_School</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2532,7 +2629,7 @@
         <v>DIM_Lender</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2548,7 +2645,7 @@
         <v>DIM_Location</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2564,7 +2661,7 @@
         <v>DIM_Institution</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2580,7 +2677,7 @@
         <v>DIM_Source_of_Name</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2596,7 +2693,7 @@
         <v>DIM_Customer</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2612,7 +2709,7 @@
         <v>DIM_Student</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2628,7 +2725,7 @@
         <v>DIM_Prospect</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2644,7 +2741,7 @@
         <v>DIM_System_of_Origin</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2660,7 +2757,7 @@
         <v>DIM_First_Call_Type</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2676,7 +2773,7 @@
         <v>DIM_Product</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2692,7 +2789,7 @@
         <v>DIM_Campaign</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2708,7 +2805,7 @@
         <v>DIM_Creative</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2724,7 +2821,7 @@
         <v>DIM_Phone_Source</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2740,7 +2837,7 @@
         <v>DIM_Creative</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2756,7 +2853,7 @@
         <v>DIM_Selection_Criteria</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2778,13 +2875,1006 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE607E6-EB08-40FC-8FB4-901F0E981992}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>MID(A2, SEARCH("T_",A2,1)+2,99)</f>
+        <v>Call</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f t="shared" ref="C3:C66" si="0">MID(A3, SEARCH("T_",A3,1)+2,99)</f>
+        <v>Telephone_Sales</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Campaign_Promotions</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Campaign_Record</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Collections</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Customer_Service</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Publication</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Campus</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Web_Session</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Prospect_Transaction</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Servicing_Transaction</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Work_Session</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Prospect</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Consolidated_Loans</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>School_Demographics</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Telephone_Sales</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Interaction</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Call</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Telephone_Sales</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Campaign_Promotions</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Campaign_Record</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Collections</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Customer_Service</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Publication</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Campus</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Web_Session</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Prospect_Transaction</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Servicing_Transaction</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Work_Session</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Prospect</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Consolidated_Loans</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>School_Demographics</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Telephone_Sales</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Interaction</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Call</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Telephone_Sales</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Prospect</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Campus</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Web_Session</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Work_Session</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Consolidated_Loans</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>School_Demographics</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Interaction</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="20" t="str">
+        <f t="shared" ref="C67:C82" si="1">MID(A67, SEARCH("T_",A67,1)+2,99)</f>
+        <v>Telephone_Sales</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Campaign_Promotions</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Campaign_Record</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Prospect_Transaction</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Prospect</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Instructor</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Student</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Interaction</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>